--- a/Studies/CAMspiracy/t1_segmentation_German/static/Scale de Graaf et al., 2023/items de Graaf 2023.xlsx
+++ b/Studies/CAMspiracy/t1_segmentation_German/static/Scale de Graaf et al., 2023/items de Graaf 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\article - CAMspiracy\t1_segmentation\static\Scale de Graaf et al., 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Studies\CAMspiracy\t1_segmentation_German\static\Scale de Graaf et al., 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{D17092F3-5608-45B4-B434-5A44D0F4F85A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AE59BFD0-0DA6-4E70-A222-E3BD1245DF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,8 @@
   <calcPr calcId="191029"/>
   <customWorkbookViews>
     <customWorkbookView name="Julius Fenn - Persönliche Ansicht" guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
+    <customWorkbookView name="Philipp Höfele - Persönliche Ansicht" guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
     <customWorkbookView name="Microsoft Office-Anwender - Persönliche Ansicht" guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" mergeInterval="0" personalView="1" windowWidth="1365" windowHeight="704" activeSheetId="1"/>
-    <customWorkbookView name="Philipp Höfele - Persönliche Ansicht" guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -42,30 +42,6 @@
   </si>
   <si>
     <t>Question</t>
-  </si>
-  <si>
-    <t>I am hesitant to believe climate change scientists tell the whole story.</t>
-  </si>
-  <si>
-    <t>The climate change we are observing is just a natural process.</t>
-  </si>
-  <si>
-    <t>There is not much we can do that will help solve environmental problems.</t>
-  </si>
-  <si>
-    <t>I believe that most of the concerns about environmental problems have been exaggerated.</t>
-  </si>
-  <si>
-    <t>It is a waste of work to solve environmental problems.</t>
-  </si>
-  <si>
-    <t>I am uncertain that human activities cause global warming.</t>
-  </si>
-  <si>
-    <t>Human behavior has little effect on stopping global warming.</t>
-  </si>
-  <si>
-    <t>I am uncertain that global warming is actually occurring.</t>
   </si>
   <si>
     <t>01ts</t>
@@ -104,29 +80,59 @@
     <t>03isr</t>
   </si>
   <si>
-    <t>I am concerned about the consequences of climate change.</t>
+    <t>Ich bin nicht sicher, ob Klimawissenschaftler ihr Wissen vollständig mit der Öffentlichkeit teilen.</t>
   </si>
   <si>
-    <t>I believe that most claims about climate change are true.</t>
+    <t>Der beobachtete Klimawandel ist ausschließlich ein natürlicher Prozess.</t>
   </si>
   <si>
-    <t>Mankind is largely responsible for global warming.</t>
+    <t>Die Menschheit kann nicht viel tun, um die Umweltprobleme zu lösen.</t>
   </si>
   <si>
-    <t>I think climate change is a serious problem.</t>
+    <t>Ich glaube, dass die meisten Umweltprobleme übertrieben werden.</t>
+  </si>
+  <si>
+    <t>Der Versuch, Umweltprobleme zu lösen, ist reine Zeitverschwendung.</t>
+  </si>
+  <si>
+    <t>Ich bezweifle, dass menschliches Handeln die Erderwärmung verursacht haben.</t>
+  </si>
+  <si>
+    <t>Menschliches Handeln hat wenig Einfluss auf die Erderwärmung.</t>
+  </si>
+  <si>
+    <t>Ich bin mir nicht sicher, ob die Erderwärmung tatsächlich stattfindet.</t>
+  </si>
+  <si>
+    <t>Ich denke, der Klimawandel ist ein ernstes Problem.</t>
+  </si>
+  <si>
+    <t>Die Menschheit ist maßgeblich für die globale Erwärmung verantwortlich.</t>
+  </si>
+  <si>
+    <t>Ich glaube, dass die meisten Behauptungen über den Klimawandel wahr sind.</t>
+  </si>
+  <si>
+    <t>Ich mache mir über die Folgen des Klimawandels Sorgen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -160,6 +166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -179,7 +188,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CF84197C-B5E7-4D38-A90C-B5F1B2886584}" diskRevisions="1" revisionId="1027" version="35">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B82907A1-423D-4A34-BB03-19942DDFB5C5}" diskRevisions="1" revisionId="1050" version="37">
   <header guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" dateTime="2022-09-29T13:56:20" maxSheetId="2" userName="Julius Fenn" r:id="rId23" minRId="265" maxRId="270">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -260,6 +269,16 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{125D127C-7CCD-4806-87FC-03FB91D9B917}" dateTime="2023-11-25T18:14:06" maxSheetId="2" userName="Julius Fenn" r:id="rId39" minRId="1028" maxRId="1046">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B82907A1-423D-4A34-BB03-19942DDFB5C5}" dateTime="2023-11-25T18:14:36" maxSheetId="2" userName="Julius Fenn" r:id="rId40" minRId="1047" maxRId="1050">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -3789,6 +3808,107 @@
   </rrc>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1047" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich denke, der Klimawandel ist ein ernstes Problem. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>Ich denke, der Klimawandel ist ein ernstes Problem.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1048" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Die Menschheit ist maßgeblich für die globale Erwärmung verantwortlich. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Die Menschheit ist maßgeblich für die globale Erwärmung verantwortlich.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1049" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich glaube, dass die meisten Behauptungen über den Klimawandel wahr sind. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Ich glaube, dass die meisten Behauptungen über den Klimawandel wahr sind.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1050" sId="1">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich mache mir über die Folgen des Klimawandels Sorgen. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reversed scored)</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Ich mache mir über die Folgen des Klimawandels Sorgen.</t>
+      </is>
+    </nc>
+  </rcc>
 </revisions>
 </file>
 
@@ -14527,9 +14647,274 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1028" sId="1" odxf="1" dxf="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>I am hesitant to believe climate change scientists tell the whole story.</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>Ich bin nicht sicher, ob Klimawissenschaftler ihr Wissen vollständig mit der Öffentlichkeit teilen.</t>
+      </is>
+    </nc>
+    <odxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" wrapText="1"/>
+    </odxf>
+    <ndxf>
+      <font>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" wrapText="0"/>
+    </ndxf>
+  </rcc>
+  <rcc rId="1029" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>The climate change we are observing is just a natural process.</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Der beobachtete Klimawandel ist ausschließlich ein natürlicher Prozess.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1030" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>I think climate change is a serious problem.</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich denke, der Klimawandel ist ein ernstes Problem. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1031" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>There is not much we can do that will help solve environmental problems.</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Die Menschheit kann nicht viel tun, um die Umweltprobleme zu lösen.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1032" sId="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>I believe that most of the concerns about environmental problems have been exaggerated.</t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Ich glaube, dass die meisten Umweltprobleme übertrieben werden.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1033" sId="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>Mankind is largely responsible for global warming.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Die Menschheit ist maßgeblich für die globale Erwärmung verantwortlich. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1034" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>I believe that most claims about climate change are true.</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich glaube, dass die meisten Behauptungen über den Klimawandel wahr sind. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reverse scored)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1035" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>It is a waste of work to solve environmental problems.</t>
+      </is>
+    </oc>
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>Der Versuch, Umweltprobleme zu lösen, ist reine Zeitverschwendung.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1036" sId="1">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>I am uncertain that human activities cause global warming.</t>
+      </is>
+    </oc>
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>Ich bezweifle, dass menschliches Handeln die Erderwärmung verursacht haben.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1037" sId="1">
+    <oc r="B11" t="inlineStr">
+      <is>
+        <t>Human behavior has little effect on stopping global warming.</t>
+      </is>
+    </oc>
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>Menschliches Handeln hat wenig Einfluss auf die Erderwärmung.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1038" sId="1">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>I am uncertain that global warming is actually occurring.</t>
+      </is>
+    </oc>
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Ich bin mir nicht sicher, ob die Erderwärmung tatsächlich stattfindet.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="1039" sId="1">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>I am concerned about the consequences of climate change.</t>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Ich mache mir über die Folgen des Klimawandels Sorgen. </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="11"/>
+            <color theme="4"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(reversed scored)</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rrc rId="1040" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1041" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1042" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1043" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1044" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1045" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rrc rId="1046" sId="1" ref="C1:C1048576" action="deleteCol">
+    <rfmt sheetId="1" xfDxf="1" sqref="C1:C1048576" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rfmt sheetId="1" sqref="B1:B1048576">
+    <dxf>
+      <alignment wrapText="0"/>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B1:B1048576">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+  </rfmt>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" name="Julius Fenn" id="-1936404097" dateTime="2022-09-29T13:55:36"/>
+  <userInfo guid="{B82907A1-423D-4A34-BB03-19942DDFB5C5}" name="Julius Fenn" id="-1936399232" dateTime="2023-11-25T18:12:25"/>
 </users>
 </file>
 
@@ -14802,7 +15187,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14822,114 +15207,114 @@
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
     <customSheetView guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" scale="190" showPageBreaks="1" fitToPage="1">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
-      <selection activeCell="E18" sqref="E18"/>
+    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
+      <selection activeCell="F45" sqref="F45"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
-      <selection activeCell="F45" sqref="F45"/>
+    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
+      <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>

--- a/Studies/CAMspiracy/t1_segmentation_German/static/Scale de Graaf et al., 2023/items de Graaf 2023.xlsx
+++ b/Studies/CAMspiracy/t1_segmentation_German/static/Scale de Graaf et al., 2023/items de Graaf 2023.xlsx
@@ -14912,9 +14912,8 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
   <userInfo guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" name="Julius Fenn" id="-1936404097" dateTime="2022-09-29T13:55:36"/>
-  <userInfo guid="{B82907A1-423D-4A34-BB03-19942DDFB5C5}" name="Julius Fenn" id="-1936399232" dateTime="2023-11-25T18:12:25"/>
 </users>
 </file>
 
